--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N2">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O2">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P2">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q2">
-        <v>305.5717133349096</v>
+        <v>211.5123737359937</v>
       </c>
       <c r="R2">
-        <v>2750.145420014187</v>
+        <v>1903.611363623944</v>
       </c>
       <c r="S2">
-        <v>0.0103937912496811</v>
+        <v>0.01106800884066639</v>
       </c>
       <c r="T2">
-        <v>0.0103937912496811</v>
+        <v>0.01106800884066639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H3">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q3">
-        <v>1482.251415986256</v>
+        <v>1500.037256302383</v>
       </c>
       <c r="R3">
-        <v>13340.2627438763</v>
+        <v>13500.33530672145</v>
       </c>
       <c r="S3">
-        <v>0.05041766343215154</v>
+        <v>0.07849387400288273</v>
       </c>
       <c r="T3">
-        <v>0.05041766343215155</v>
+        <v>0.07849387400288273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H4">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N4">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q4">
-        <v>397.3099046171017</v>
+        <v>97.02489358601244</v>
       </c>
       <c r="R4">
-        <v>3575.789141553915</v>
+        <v>873.224042274112</v>
       </c>
       <c r="S4">
-        <v>0.01351419660200952</v>
+        <v>0.005077113745199094</v>
       </c>
       <c r="T4">
-        <v>0.01351419660200952</v>
+        <v>0.005077113745199094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H5">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N5">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q5">
-        <v>3241.81867737313</v>
+        <v>3495.676147108525</v>
       </c>
       <c r="R5">
-        <v>29176.36809635817</v>
+        <v>31461.08532397673</v>
       </c>
       <c r="S5">
-        <v>0.110268016087614</v>
+        <v>0.182921565376578</v>
       </c>
       <c r="T5">
-        <v>0.110268016087614</v>
+        <v>0.182921565376578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H6">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N6">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q6">
-        <v>374.4230831584923</v>
+        <v>76.33093851010712</v>
       </c>
       <c r="R6">
-        <v>3369.807748426431</v>
+        <v>686.978446590964</v>
       </c>
       <c r="S6">
-        <v>0.01273571864011523</v>
+        <v>0.003994241506176528</v>
       </c>
       <c r="T6">
-        <v>0.01273571864011523</v>
+        <v>0.003994241506176528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N7">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O7">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P7">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q7">
-        <v>366.8696064932616</v>
+        <v>250.9309275795544</v>
       </c>
       <c r="R7">
-        <v>3301.826458439355</v>
+        <v>2258.37834821599</v>
       </c>
       <c r="S7">
-        <v>0.01247879283107708</v>
+        <v>0.01313070094099418</v>
       </c>
       <c r="T7">
-        <v>0.01247879283107709</v>
+        <v>0.01313070094099418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q8">
         <v>1779.592056385648</v>
@@ -948,10 +948,10 @@
         <v>16016.32850747083</v>
       </c>
       <c r="S8">
-        <v>0.06053148094696373</v>
+        <v>0.09312240350269499</v>
       </c>
       <c r="T8">
-        <v>0.06053148094696374</v>
+        <v>0.09312240350269499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N9">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q9">
-        <v>477.0105412309418</v>
+        <v>115.1069609583911</v>
       </c>
       <c r="R9">
-        <v>4293.094871078476</v>
+        <v>1035.96264862552</v>
       </c>
       <c r="S9">
-        <v>0.01622515361563539</v>
+        <v>0.006023311256011461</v>
       </c>
       <c r="T9">
-        <v>0.01622515361563539</v>
+        <v>0.006023311256011461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N10">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q10">
-        <v>3892.129705038747</v>
+        <v>4147.148663777649</v>
       </c>
       <c r="R10">
-        <v>35029.16734534872</v>
+        <v>37324.33797399884</v>
       </c>
       <c r="S10">
-        <v>0.1323878549796186</v>
+        <v>0.2170117864193671</v>
       </c>
       <c r="T10">
-        <v>0.1323878549796186</v>
+        <v>0.2170117864193671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N11">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q11">
-        <v>449.5326078490684</v>
+        <v>90.55637202231279</v>
       </c>
       <c r="R11">
-        <v>4045.793470641616</v>
+        <v>815.007348200815</v>
       </c>
       <c r="S11">
-        <v>0.01529051244604907</v>
+        <v>0.00473862927458164</v>
       </c>
       <c r="T11">
-        <v>0.01529051244604907</v>
+        <v>0.00473862927458164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H12">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N12">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O12">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P12">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q12">
-        <v>497.299672882801</v>
+        <v>116.5754429370873</v>
       </c>
       <c r="R12">
-        <v>4475.697055945209</v>
+        <v>1049.178986433786</v>
       </c>
       <c r="S12">
-        <v>0.01691527311892722</v>
+        <v>0.006100153907036956</v>
       </c>
       <c r="T12">
-        <v>0.01691527311892722</v>
+        <v>0.006100153907036956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H13">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q13">
-        <v>2412.275456570613</v>
+        <v>826.7483574925515</v>
       </c>
       <c r="R13">
-        <v>21710.47910913552</v>
+        <v>7440.735217432964</v>
       </c>
       <c r="S13">
-        <v>0.08205172939173268</v>
+        <v>0.04326204641415177</v>
       </c>
       <c r="T13">
-        <v>0.08205172939173269</v>
+        <v>0.04326204641415177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N14">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q14">
-        <v>646.5980880325451</v>
+        <v>53.47545274032534</v>
       </c>
       <c r="R14">
-        <v>5819.382792292906</v>
+        <v>481.279074662928</v>
       </c>
       <c r="S14">
-        <v>0.02199354605210904</v>
+        <v>0.00279826079786385</v>
       </c>
       <c r="T14">
-        <v>0.02199354605210904</v>
+        <v>0.00279826079786385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H15">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N15">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q15">
-        <v>5275.8658522691</v>
+        <v>1926.64848876612</v>
       </c>
       <c r="R15">
-        <v>47482.7926704219</v>
+        <v>17339.83639889508</v>
       </c>
       <c r="S15">
-        <v>0.179454595883045</v>
+        <v>0.1008175650902411</v>
       </c>
       <c r="T15">
-        <v>0.179454595883045</v>
+        <v>0.1008175650902411</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H16">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N16">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q16">
-        <v>609.3511560424131</v>
+        <v>42.06994044578234</v>
       </c>
       <c r="R16">
-        <v>5484.160404381718</v>
+        <v>378.6294640120411</v>
       </c>
       <c r="S16">
-        <v>0.02072661976638902</v>
+        <v>0.002201433724919658</v>
       </c>
       <c r="T16">
-        <v>0.02072661976638902</v>
+        <v>0.002201433724919658</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H17">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I17">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J17">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N17">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O17">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P17">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q17">
-        <v>37.49187209781133</v>
+        <v>34.089996974176</v>
       </c>
       <c r="R17">
-        <v>337.426848880302</v>
+        <v>306.809972767584</v>
       </c>
       <c r="S17">
-        <v>0.001275257738654947</v>
+        <v>0.001783859644823525</v>
       </c>
       <c r="T17">
-        <v>0.001275257738654947</v>
+        <v>0.001783859644823525</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H18">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I18">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J18">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.032622</v>
       </c>
       <c r="O18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q18">
-        <v>181.8636283393436</v>
+        <v>241.764888858592</v>
       </c>
       <c r="R18">
-        <v>1636.772655054092</v>
+        <v>2175.883999727329</v>
       </c>
       <c r="S18">
-        <v>0.006185954086649996</v>
+        <v>0.0126510609284239</v>
       </c>
       <c r="T18">
-        <v>0.006185954086649996</v>
+        <v>0.0126510609284239</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H19">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I19">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J19">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N19">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q19">
-        <v>48.74761464184334</v>
+        <v>15.637753339648</v>
       </c>
       <c r="R19">
-        <v>438.72853177659</v>
+        <v>140.739780056832</v>
       </c>
       <c r="S19">
-        <v>0.00165811332789138</v>
+        <v>0.0008182915692082325</v>
       </c>
       <c r="T19">
-        <v>0.001658113327891379</v>
+        <v>0.0008182915692082326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N20">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q20">
-        <v>397.7522981099963</v>
+        <v>563.407176482128</v>
       </c>
       <c r="R20">
-        <v>3579.770682989966</v>
+        <v>5070.664588339152</v>
       </c>
       <c r="S20">
-        <v>0.01352924428284746</v>
+        <v>0.02948194235663252</v>
       </c>
       <c r="T20">
-        <v>0.01352924428284745</v>
+        <v>0.02948194235663252</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H21">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I21">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J21">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N21">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q21">
-        <v>45.93953475288068</v>
+        <v>12.302455014256</v>
       </c>
       <c r="R21">
-        <v>413.4558127759261</v>
+        <v>110.722095128304</v>
       </c>
       <c r="S21">
-        <v>0.001562598609399368</v>
+        <v>0.0006437622464094855</v>
       </c>
       <c r="T21">
-        <v>0.001562598609399368</v>
+        <v>0.0006437622464094856</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H22">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N22">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O22">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P22">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q22">
-        <v>341.3034151195936</v>
+        <v>138.1211121732982</v>
       </c>
       <c r="R22">
-        <v>3071.730736076343</v>
+        <v>1243.090009559684</v>
       </c>
       <c r="S22">
-        <v>0.01160917812333069</v>
+        <v>0.007227594601745943</v>
       </c>
       <c r="T22">
-        <v>0.01160917812333069</v>
+        <v>0.007227594601745943</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H23">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.032622</v>
       </c>
       <c r="O23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q23">
-        <v>1655.576901476787</v>
+        <v>979.5493780447808</v>
       </c>
       <c r="R23">
-        <v>14900.19211329108</v>
+        <v>8815.944402403029</v>
       </c>
       <c r="S23">
-        <v>0.0563131990325418</v>
+        <v>0.05125781052224057</v>
       </c>
       <c r="T23">
-        <v>0.05631319903254181</v>
+        <v>0.05125781052224057</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H24">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N24">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q24">
-        <v>443.7689137738817</v>
+        <v>63.35887576640356</v>
       </c>
       <c r="R24">
-        <v>3993.920223964935</v>
+        <v>570.229881897632</v>
       </c>
       <c r="S24">
-        <v>0.01509446474127066</v>
+        <v>0.003315440060223309</v>
       </c>
       <c r="T24">
-        <v>0.01509446474127066</v>
+        <v>0.003315440060223309</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H25">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N25">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q25">
-        <v>3620.897280414369</v>
+        <v>2282.7348996563</v>
       </c>
       <c r="R25">
-        <v>32588.07552372932</v>
+        <v>20544.6140969067</v>
       </c>
       <c r="S25">
-        <v>0.1231620887235619</v>
+        <v>0.119450836866071</v>
       </c>
       <c r="T25">
-        <v>0.1231620887235619</v>
+        <v>0.119450836866071</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H26">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N26">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q26">
-        <v>418.2058463033844</v>
+        <v>49.84537752579489</v>
       </c>
       <c r="R26">
-        <v>3763.852616730459</v>
+        <v>448.608397732154</v>
       </c>
       <c r="S26">
-        <v>0.01422495629073337</v>
+        <v>0.002608306404855826</v>
       </c>
       <c r="T26">
-        <v>0.01422495629073337</v>
+        <v>0.002608306404855826</v>
       </c>
     </row>
   </sheetData>
